--- a/techniqo/data_new_ticker/CDSL.xlsx
+++ b/techniqo/data_new_ticker/CDSL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G502"/>
+  <dimension ref="A1:G504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17996,6 +17996,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>475.6</v>
+      </c>
+      <c r="C503" t="n">
+        <v>489.9</v>
+      </c>
+      <c r="D503" t="n">
+        <v>470.4</v>
+      </c>
+      <c r="E503" t="n">
+        <v>485.9</v>
+      </c>
+      <c r="F503" t="n">
+        <v>2325483</v>
+      </c>
+      <c r="G503" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>488.7</v>
+      </c>
+      <c r="C504" t="n">
+        <v>494.4</v>
+      </c>
+      <c r="D504" t="n">
+        <v>478.95</v>
+      </c>
+      <c r="E504" t="n">
+        <v>487.5</v>
+      </c>
+      <c r="F504" t="n">
+        <v>1664521</v>
+      </c>
+      <c r="G504" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/CDSL.xlsx
+++ b/techniqo/data_new_ticker/CDSL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G504"/>
+  <dimension ref="A1:G506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18046,6 +18046,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>485</v>
+      </c>
+      <c r="C505" t="n">
+        <v>487.5</v>
+      </c>
+      <c r="D505" t="n">
+        <v>470.05</v>
+      </c>
+      <c r="E505" t="n">
+        <v>476.7</v>
+      </c>
+      <c r="F505" t="n">
+        <v>943709</v>
+      </c>
+      <c r="G505" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>480</v>
+      </c>
+      <c r="C506" t="n">
+        <v>480</v>
+      </c>
+      <c r="D506" t="n">
+        <v>463</v>
+      </c>
+      <c r="E506" t="n">
+        <v>469.15</v>
+      </c>
+      <c r="F506" t="n">
+        <v>835818</v>
+      </c>
+      <c r="G506" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
